--- a/Fiona_test_Promotion_new_data.xlsx
+++ b/Fiona_test_Promotion_new_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\precision\Documents\My Tableau Repository\Repository app\ETL_scheduler\etl_shceduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461C6CCE-93D2-4A43-95D8-4B2AA87C7F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B276C4A7-02B4-4515-81D1-18F57D87CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31860" yWindow="2610" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{131990EC-D8BA-4725-AD75-5FCE4F987CFD}"/>
+    <workbookView xWindow="29190" yWindow="2370" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{131990EC-D8BA-4725-AD75-5FCE4F987CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetA" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>week number</t>
   </si>
   <si>
     <t>Product</t>
@@ -55,16 +52,19 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>On Flyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sales </t>
   </si>
   <si>
-    <t xml:space="preserve">Gross Margin </t>
+    <t>weeknumber</t>
   </si>
   <si>
-    <t>Transactions that contained the product</t>
+    <t>OnFlyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrossMargin </t>
+  </si>
+  <si>
+    <t>Transactions</t>
   </si>
 </sst>
 </file>
@@ -116,7 +116,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,6 +158,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ABF0580-9B27-4D69-A3D6-91B6AACA9CDB}" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
+  <autoFilter ref="A1:J16" xr:uid="{2ABF0580-9B27-4D69-A3D6-91B6AACA9CDB}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{E0B24FED-6596-43DC-958F-10556CF71676}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{0C594BDE-6DD8-4B27-8B84-7617B567BCA0}" name="weeknumber"/>
+    <tableColumn id="3" xr3:uid="{BE44BE41-6424-4562-9CF9-A4D45C193B4E}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{E587157F-B881-4F22-B83C-DE324CC1B8BC}" name="Price"/>
+    <tableColumn id="5" xr3:uid="{DFFC66AD-DC1B-4819-B231-9A93D21AFB07}" name="OnFlyer"/>
+    <tableColumn id="6" xr3:uid="{59F32A32-CD64-4CBE-97A0-62533B5EF973}" name="Discount" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{4E4A4FC4-529D-480D-9FE1-6EAA760F2AF7}" name="Units" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{94E03B2D-2B0E-40FE-9BB4-C15F4DC367B7}" name="Sales " dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{1C552012-4840-4DBA-AA5E-9535E41A7D3E}" name="GrossMargin " dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{23B85DAB-0EBD-4DA8-9093-ADBFFB4DA52B}" name="Transactions" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82C58F95-4F6D-4655-9F22-7D64457D99DE}" name="Table2" displayName="Table2" ref="A1:J16" totalsRowShown="0">
+  <autoFilter ref="A1:J16" xr:uid="{82C58F95-4F6D-4655-9F22-7D64457D99DE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{A8BDFA6A-3E07-4EEC-9B4E-CBE144164D73}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{B3AED800-F750-4EE2-88A6-87FFAD49D822}" name="weeknumber"/>
+    <tableColumn id="3" xr3:uid="{D4478181-C4F7-4C9F-8695-D2CB58BDBD5C}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{701E3F50-79A7-4A63-B54D-EF04561C3853}" name="Price"/>
+    <tableColumn id="5" xr3:uid="{205CDB38-C887-472A-9EA4-9E2E514E3E3B}" name="OnFlyer"/>
+    <tableColumn id="6" xr3:uid="{A9D8C583-6881-41F8-9633-C60C9EE41CA1}" name="Discount" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F7FD67DF-2DF4-4A1A-814D-F66176B9366B}" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E07DCD8F-653A-42F8-91C3-73C75A146B88}" name="Sales " dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A8D6591E-7722-49F0-AE42-13A905CACA6A}" name="GrossMargin " dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{EE4A81E0-8E13-48B3-B6C2-3C507FD9F7C3}" name="Transactions" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,20 +518,20 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,25 +540,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -510,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3.29</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5">
         <v>0.35</v>
@@ -546,13 +615,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>4.99</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -582,13 +651,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>4.29</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5">
         <v>0.15</v>
@@ -618,13 +687,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4.99</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -654,13 +723,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>4.99</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -690,13 +759,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>4.99</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -726,13 +795,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>4.99</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -762,13 +831,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>4.29</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5">
         <v>0.15</v>
@@ -798,13 +867,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>3.49</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="5">
         <v>0.3</v>
@@ -834,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>4.99</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -870,13 +939,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>4.29</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="5">
         <v>0.15</v>
@@ -906,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>4.99</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -942,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>4.49</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="5">
         <v>0.1</v>
@@ -978,13 +1047,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>4.99</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1014,13 +1083,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>4.79</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="5">
         <v>0.05</v>
@@ -1040,6 +1109,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1048,20 +1120,20 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
     <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1070,25 +1142,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -1109,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3.29</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5">
         <v>0.35</v>
@@ -1145,13 +1217,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>4.99</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -1181,13 +1253,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>4.29</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5">
         <v>0.15</v>
@@ -1217,13 +1289,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4.99</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -1253,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>4.99</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -1289,13 +1361,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>4.99</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -1325,13 +1397,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>4.99</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1361,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>4.29</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5">
         <v>0.15</v>
@@ -1397,13 +1469,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>3.49</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="5">
         <v>0.3</v>
@@ -1433,13 +1505,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>4.99</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -1469,13 +1541,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>4.29</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="5">
         <v>0.15</v>
@@ -1505,13 +1577,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>4.99</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -1541,13 +1613,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>4.49</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="5">
         <v>0.1</v>
@@ -1577,13 +1649,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>4.99</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -1613,13 +1685,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>4.79</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="5">
         <v>0.05</v>
@@ -1639,5 +1711,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Fiona_test_Promotion_new_data.xlsx
+++ b/Fiona_test_Promotion_new_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\precision\Documents\My Tableau Repository\Repository app\ETL_scheduler\etl_shceduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B276C4A7-02B4-4515-81D1-18F57D87CFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97AA364F-CC64-489B-8954-6B80B56483C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2370" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{131990EC-D8BA-4725-AD75-5FCE4F987CFD}"/>
+    <workbookView xWindow="32280" yWindow="3480" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{131990EC-D8BA-4725-AD75-5FCE4F987CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="sheetA" sheetId="2" r:id="rId1"/>

--- a/Fiona_test_Promotion_new_data.xlsx
+++ b/Fiona_test_Promotion_new_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\precision\Documents\My Tableau Repository\Repository app\ETL_scheduler\etl_shceduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97AA364F-CC64-489B-8954-6B80B56483C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A654C4-F983-4E8B-9BC6-3C84C2B42FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="3480" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{131990EC-D8BA-4725-AD75-5FCE4F987CFD}"/>
   </bookViews>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
